--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject50.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject50.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.50221077896270216</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -161,7 +161,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="0">
-        <v>0</v>
+        <v>0.73482512554516277</v>
       </c>
       <c r="M1" s="0">
         <v>0</v>
@@ -299,7 +299,7 @@
         <v>0</v>
       </c>
       <c r="BF1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.62650851100006033</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.65505065700124776</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.88362970599851076</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.7493031366899916</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.77899956177198382</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.77125568198315508</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.86777631746887851</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.74674697381052457</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.84931068305072677</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.61268649908968253</v>
       </c>
       <c r="G4" s="0">
-        <v>0</v>
+        <v>0.61736126895825993</v>
       </c>
       <c r="H4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.71138196967533607</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.8628832385403099</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="BL5" s="0">
-        <v>0</v>
+        <v>0.64203394489087695</v>
       </c>
       <c r="BM5" s="0">
         <v>0</v>
       </c>
       <c r="BN5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="0">
         <v>0</v>
@@ -1167,25 +1167,25 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.6229915625148813</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.67694591058610754</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="0">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>0</v>
+        <v>0.71829164516216382</v>
       </c>
       <c r="R6" s="0">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="BG6" s="0">
-        <v>0</v>
+        <v>0.57289377397665775</v>
       </c>
       <c r="BH6" s="0">
         <v>0</v>
       </c>
       <c r="BI6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>0.97386915505288907</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.75438016792866236</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.66779897780577624</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.62066486892163597</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="0">
-        <v>0</v>
+        <v>0.91300789262160476</v>
       </c>
       <c r="AJ7" s="0">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="0">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.56336455603040914</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.55222655654903074</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.82663699660928192</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>0</v>
+        <v>0.50906354543043497</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.74958738177630679</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.61104156441508695</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>0</v>
+        <v>0.56951579678618436</v>
       </c>
       <c r="AA9" s="0">
         <v>0</v>
@@ -1997,22 +1997,22 @@
         <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.62413355240063173</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.60732047886504636</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.72394900548067287</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="0">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="0">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AX10" s="0">
-        <v>0</v>
+        <v>0.75910459453657242</v>
       </c>
       <c r="AY10" s="0">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="0">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.96996196731853379</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.85219790931497674</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.90382503265164793</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="0">
-        <v>0</v>
+        <v>0.95068096915793676</v>
       </c>
       <c r="AH11" s="0">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AM11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="0">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="AV11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="0">
         <v>0</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0</v>
+        <v>0.821840996564285</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -2424,16 +2424,16 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.91936563995652143</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.79238083074983989</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="0">
-        <v>0</v>
+        <v>0.92637289993889693</v>
       </c>
       <c r="X12" s="0">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.8760739574690386</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.96664944369733552</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="0">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="0">
-        <v>0</v>
+        <v>0.55524436902290986</v>
       </c>
       <c r="BG13" s="0">
         <v>0</v>
@@ -2833,25 +2833,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="0">
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.75502240991538816</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.9417380992553569</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.98560220020105582</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.98514752509992509</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.64055120859917813</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.59465931784375381</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.90023947358820922</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>0</v>
+        <v>0.67518990770574905</v>
       </c>
       <c r="BH15" s="0">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>0</v>
+        <v>0.7358053826940647</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.75553113874777822</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.55549331521501899</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3299,19 +3299,19 @@
         <v>0</v>
       </c>
       <c r="AB16" s="0">
-        <v>0</v>
+        <v>0.81665368388616377</v>
       </c>
       <c r="AC16" s="0">
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0</v>
+        <v>0.73500809800132116</v>
       </c>
       <c r="AE16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="0">
-        <v>0</v>
+        <v>0.77488756483333332</v>
       </c>
       <c r="AG16" s="0">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="0">
-        <v>0</v>
+        <v>0.77930113138325385</v>
       </c>
       <c r="BB16" s="0">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="0">
-        <v>0</v>
+        <v>0.55887357562671747</v>
       </c>
       <c r="G17" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.99407860905500844</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.91256643657661796</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.85793767945533594</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3738,13 +3738,13 @@
         <v>0</v>
       </c>
       <c r="AK18" s="0">
-        <v>0</v>
+        <v>0.71244868183133958</v>
       </c>
       <c r="AL18" s="0">
         <v>0</v>
       </c>
       <c r="AM18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="0">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.75993093736272455</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.7213317729647547</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
-        <v>0</v>
+        <v>0.72052615874387782</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.90510538503210025</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.99864019206798527</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.5449610560535838</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.86417632545852596</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="0">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.98287021745740055</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.93510164334211232</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="0">
-        <v>0</v>
+        <v>0.94369699618682068</v>
       </c>
       <c r="AD21" s="0">
         <v>0</v>
@@ -4508,22 +4508,22 @@
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>0</v>
+        <v>0.68830017425460033</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.90340675219949274</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.97009961524990773</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.50562436085669737</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.82198156528312993</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="0">
-        <v>0</v>
+        <v>0.78344776494675905</v>
       </c>
       <c r="AR22" s="0">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>0</v>
+        <v>0.81156958927513045</v>
       </c>
       <c r="M23" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.67396039388308671</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.81499262567185116</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.83553256736832227</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="0">
-        <v>0</v>
+        <v>0.90991130060901959</v>
       </c>
       <c r="AN23" s="0">
         <v>0</v>
@@ -4858,10 +4858,10 @@
         <v>0</v>
       </c>
       <c r="BO23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>0</v>
+        <v>0.51381954021999376</v>
       </c>
     </row>
     <row r="24">
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.56677215517454482</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.92624484576375132</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.75278350282022677</v>
       </c>
       <c r="Z24" s="0">
-        <v>0</v>
+        <v>0.61338067321737066</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5138,16 +5138,16 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.72850673988810333</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.67535492671655073</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.58855494158639732</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AY25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="0">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="BF25" s="0">
-        <v>0</v>
+        <v>0.61983811100125341</v>
       </c>
       <c r="BG25" s="0">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="0">
-        <v>0</v>
+        <v>0.71515726756553888</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
@@ -5347,25 +5347,25 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>0.58389606337029254</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.71830264785355136</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0</v>
+        <v>0.82666629421558446</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.78748911952415823</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
       </c>
       <c r="AD26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="0">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="AR26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="0">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AW26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="0">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ26" s="0">
         <v>0</v>
@@ -5559,16 +5559,16 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0</v>
+        <v>0.57581161008520998</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.93674745988878372</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.95256167502627087</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="AG27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="0">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="0">
-        <v>0</v>
+        <v>0.65642230986308114</v>
       </c>
       <c r="Q28" s="0">
         <v>0</v>
@@ -5765,25 +5765,25 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.92991385869319265</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.80507974974055618</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.6482680620513821</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.60896381412959144</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
       </c>
       <c r="AF28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="0">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="0">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="0">
-        <v>0</v>
+        <v>0.68947862867200349</v>
       </c>
       <c r="V29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.69689161225754637</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.90703407469897335</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.76939197714725149</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.95713191333526915</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>0</v>
+        <v>0.509014502403212</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0</v>
+        <v>0.9724266307802284</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="0">
         <v>0</v>
@@ -6177,22 +6177,22 @@
         <v>0</v>
       </c>
       <c r="Z30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="0">
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.69576619818841468</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.63549061060861334</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.53217983300218075</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="0">
-        <v>0</v>
+        <v>0.59985992793725429</v>
       </c>
       <c r="BF30" s="0">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.86654494722333064</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.67044518150701093</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.74692719201649582</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.70685902177486648</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="0">
-        <v>0</v>
+        <v>0.75440906763734583</v>
       </c>
       <c r="Q32" s="0">
         <v>0</v>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="0">
         <v>0</v>
@@ -6604,16 +6604,16 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.85482512322563931</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.91203188499513943</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>0</v>
+        <v>0.83874507026993572</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="0">
         <v>0</v>
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.69126962490018307</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.91642549849297539</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" s="0">
-        <v>0</v>
+        <v>0.77473488401242241</v>
       </c>
       <c r="BA33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.52465490165838613</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.75143796014081243</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>0</v>
+        <v>0.87106246550090105</v>
       </c>
       <c r="BO34" s="0">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0">
-        <v>0</v>
+        <v>0.71108340277884385</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.67213072642618887</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.55890088622400014</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.90333546301390344</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.7748006117113323</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.54246313979820848</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.6097169399386333</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.54867750370356383</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="BL36" s="0">
-        <v>0</v>
+        <v>0.92430781460713263</v>
       </c>
       <c r="BM36" s="0">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="0">
-        <v>0</v>
+        <v>0.64899687111577342</v>
       </c>
       <c r="S37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.66216935702747104</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.56009733528678085</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.54880768472162167</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.55555055481599447</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0</v>
+        <v>0.62106453353264957</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.9753084733973767</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.97275964554369077</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.52178322463208215</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.50857778644740614</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="0">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="0">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="0">
-        <v>0</v>
+        <v>0.71926417355029026</v>
       </c>
       <c r="X39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.63754044588504966</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.87415062980386971</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.65007060868036737</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="AG40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.77190971135714292</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.70871332140413612</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.57851367478578286</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.6141040287343511</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.98558760570001724</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.86793512590496191</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.91590304821958379</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.9216616590148432</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.89785902334879764</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.51820662608506773</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.74221987481762253</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>0</v>
+        <v>0.82257124161649631</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="0">
-        <v>0</v>
+        <v>0.62172749745631573</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.54793548533141845</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.77257587968435448</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.86643733781959398</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.72230271348380892</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.85712135125579469</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.74134856898807966</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0</v>
+        <v>0.58362064803565339</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9318,22 +9318,22 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.67849733342139151</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.90329733184608574</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
-        <v>0</v>
+        <v>0.9286553043304776</v>
       </c>
       <c r="AW45" s="0">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="BB45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="AG46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="0">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.53902702179255146</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.77693370401341011</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.68778089983914703</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.78105582294499099</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.74565864771441048</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.62161845994446607</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="BI47" s="0">
-        <v>0</v>
+        <v>0.70029037392352911</v>
       </c>
       <c r="BJ47" s="0">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="0">
         <v>0</v>
@@ -9942,22 +9942,22 @@
         <v>0</v>
       </c>
       <c r="AS48" s="0">
-        <v>0</v>
+        <v>0.55521520963322279</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.92003526087168197</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.92981099932253453</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.82383075279084128</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.57219884946452815</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.82166080574305389</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.50769628057672456</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.60927955621111796</v>
       </c>
       <c r="AY49" s="0">
-        <v>0</v>
+        <v>0.79606117960830813</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="0">
-        <v>0</v>
+        <v>0.58790456888171727</v>
       </c>
       <c r="K50" s="0">
         <v>0</v>
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" s="0">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.86413816157231038</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.96761695718002483</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.86551730435498619</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.50724333686702061</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0</v>
+        <v>0.82537714125900585</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.76359130008050746</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.64991576273504514</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.78290166303728559</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="BI51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="AG52" s="0">
-        <v>0</v>
+        <v>0.86224685803940493</v>
       </c>
       <c r="AH52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.64510317525378402</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.68708093442682139</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.75074867810191936</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="0">
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>0</v>
+        <v>0.76372945560331629</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.5671977965768602</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.65648749932275263</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>0</v>
+        <v>0.61274631661242607</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="0">
         <v>0</v>
@@ -11199,10 +11199,10 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.81186472187875958</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.56317545175456218</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.84298581764974734</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.72749215356850327</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.88960759643519793</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11617,25 +11617,25 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.66291245876567206</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.98663203154499945</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.59100793231560611</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.52862232911439722</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
       </c>
       <c r="BH56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI56" s="0">
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="BK56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL56" s="0">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="AD57" s="0">
-        <v>0</v>
+        <v>0.61670094988014856</v>
       </c>
       <c r="AE57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.88448616217840592</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.9885081585435983</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.50634575320647279</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK57" s="0">
         <v>0</v>
@@ -11870,7 +11870,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="0">
-        <v>0</v>
+        <v>0.63524844502094813</v>
       </c>
       <c r="N58" s="0">
         <v>0</v>
@@ -11942,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="0">
-        <v>0</v>
+        <v>0.57281363825058484</v>
       </c>
       <c r="Z58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.68860015677568054</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.6337693718138635</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.515353754825851</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.94982049974785032</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="0">
-        <v>0</v>
+        <v>0.97723102837704812</v>
       </c>
       <c r="G59" s="0">
         <v>0</v>
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="0">
-        <v>0</v>
+        <v>0.84848750318559174</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
@@ -12244,25 +12244,25 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.74260005885462776</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.90431575044449941</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
       </c>
       <c r="BK59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL59" s="0">
         <v>0</v>
@@ -12447,25 +12447,25 @@
         <v>0</v>
       </c>
       <c r="BD60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE60" s="0">
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.76766435247389797</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.51113252996967518</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.97098480633141437</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="0">
         <v>0</v>
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="0">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="0">
         <v>0</v>
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="AU61" s="0">
-        <v>0</v>
+        <v>0.55093584083436142</v>
       </c>
       <c r="AV61" s="0">
         <v>0</v>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="AY61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="0">
         <v>0</v>
@@ -12662,10 +12662,10 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.86203879988131993</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.97822365476206063</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.66891984245340685</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="BE62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.87946440644452739</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12880,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.63102900004052764</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.63137094476218447</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
@@ -13074,25 +13074,25 @@
         <v>0</v>
       </c>
       <c r="BG63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH63" s="0">
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.57851864669424224</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.80512521931213832</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.6786128267796161</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.73602056630970214</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>0</v>
+        <v>0.58968816461032936</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>0</v>
+        <v>0.88297900603472601</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.68407717792227374</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.57219039825499429</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.58497730810467807</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.92273136997414551</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.76701510898552416</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.83040729147987913</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.56135191628402104</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="0">
         <v>0</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="AH66" s="0">
-        <v>0</v>
+        <v>0.65110268153185913</v>
       </c>
       <c r="AI66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.79107055292558104</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.62001234217124068</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.91783653290591305</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="W67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" s="0">
         <v>0</v>
@@ -13808,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="0">
-        <v>0</v>
+        <v>0.93432948546473482</v>
       </c>
       <c r="AD67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.94643037551235865</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.82709113943720747</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.96803542607475679</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.91293480306456509</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="0">
-        <v>0</v>
+        <v>0.62512193717966746</v>
       </c>
       <c r="X68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.939854575000306</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.65031009374031568</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject50.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject50.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.50221077896270216</v>
+        <v>0.65505065700124776</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -161,7 +161,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="0">
-        <v>0.73482512554516277</v>
+        <v>0.821840996564285</v>
       </c>
       <c r="M1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.62650851100006033</v>
+        <v>0.91293480306456509</v>
       </c>
     </row>
     <row r="2">
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0.77899956177198382</v>
+        <v>0.88362970599851076</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.77125568198315508</v>
+        <v>0.84931068305072677</v>
       </c>
       <c r="E3" s="0">
         <v>0.86777631746887851</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.74674697381052457</v>
+        <v>0.7493031366899916</v>
       </c>
       <c r="C4" s="0">
         <v>0.84931068305072677</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.61268649908968253</v>
+        <v>0.6229915625148813</v>
       </c>
       <c r="G4" s="0">
-        <v>0.61736126895825993</v>
+        <v>0.97386915505288907</v>
       </c>
       <c r="H4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.71138196967533607</v>
+        <v>0.86777631746887851</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="BG6" s="0">
-        <v>0.57289377397665775</v>
+        <v>0.97723102837704812</v>
       </c>
       <c r="BH6" s="0">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0.97386915505288907</v>
       </c>
       <c r="E7" s="0">
-        <v>0.75438016792866236</v>
+        <v>0.8628832385403099</v>
       </c>
       <c r="F7" s="0">
-        <v>0.66779897780577624</v>
+        <v>0.67694591058610754</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0.56336455603040914</v>
+        <v>0.62066486892163597</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.55222655654903074</v>
+        <v>0.74958738177630679</v>
       </c>
       <c r="J8" s="0">
         <v>0.82663699660928192</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>0.50906354543043497</v>
+        <v>0.7358053826940647</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.56951579678618436</v>
+        <v>0.71515726756553888</v>
       </c>
       <c r="AA9" s="0">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.62413355240063173</v>
+        <v>0.82663699660928192</v>
       </c>
       <c r="I10" s="0">
-        <v>0.60732047886504636</v>
+        <v>0.61104156441508695</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.72394900548067287</v>
+        <v>0.96996196731853379</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.85219790931497674</v>
+        <v>0.91936563995652143</v>
       </c>
       <c r="M11" s="0">
         <v>0.90382503265164793</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.8760739574690386</v>
+        <v>0.90382503265164793</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="0">
-        <v>0.55524436902290986</v>
+        <v>0.63524844502094813</v>
       </c>
       <c r="BG13" s="0">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.75502240991538816</v>
+        <v>0.79238083074983989</v>
       </c>
       <c r="M14" s="0">
-        <v>0.9417380992553569</v>
+        <v>0.96664944369733552</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0.64055120859917813</v>
+        <v>0.98560220020105582</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0.59465931784375381</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.90023947358820922</v>
+        <v>0.99407860905500844</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>0.67518990770574905</v>
+        <v>0.84848750318559174</v>
       </c>
       <c r="BH15" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.75553113874777822</v>
+        <v>0.98514752509992509</v>
       </c>
       <c r="O16" s="0">
-        <v>0.55549331521501899</v>
+        <v>0.59465931784375381</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.73500809800132116</v>
+        <v>0.9724266307802284</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="0">
-        <v>0.55887357562671747</v>
+        <v>0.71829164516216382</v>
       </c>
       <c r="G17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0.85793767945533594</v>
+        <v>0.90510538503210025</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.75993093736272455</v>
+        <v>0.91256643657661796</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.7213317729647547</v>
+        <v>0.99864019206798527</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.5449610560535838</v>
+        <v>0.98287021745740055</v>
       </c>
       <c r="V20" s="0">
-        <v>0.86417632545852596</v>
+        <v>0.90340675219949274</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.93510164334211232</v>
+        <v>0.97009961524990773</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>0.68830017425460033</v>
+        <v>0.72052615874387782</v>
       </c>
       <c r="T22" s="0">
         <v>0.90340675219949274</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.50562436085669737</v>
+        <v>0.67396039388308671</v>
       </c>
       <c r="X22" s="0">
         <v>0.82198156528312993</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>0.81156958927513045</v>
+        <v>0.92637289993889693</v>
       </c>
       <c r="M23" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.81499262567185116</v>
+        <v>0.92624484576375132</v>
       </c>
       <c r="Y23" s="0">
         <v>0.83553256736832227</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>0.51381954021999376</v>
+        <v>0.62512193717966746</v>
       </c>
     </row>
     <row r="24">
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.56677215517454482</v>
+        <v>0.82198156528312993</v>
       </c>
       <c r="W24" s="0">
         <v>0.92624484576375132</v>
@@ -5138,16 +5138,16 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.72850673988810333</v>
+        <v>0.83553256736832227</v>
       </c>
       <c r="X25" s="0">
-        <v>0.67535492671655073</v>
+        <v>0.75278350282022677</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.58855494158639732</v>
+        <v>0.71830264785355136</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.58389606337029254</v>
+        <v>0.61338067321737066</v>
       </c>
       <c r="Y26" s="0">
         <v>0.71830264785355136</v>
@@ -5359,7 +5359,7 @@
         <v>0.82666629421558446</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.78748911952415823</v>
+        <v>0.92991385869319265</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.57581161008520998</v>
+        <v>0.82666629421558446</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="0">
-        <v>0.65642230986308114</v>
+        <v>0.81665368388616377</v>
       </c>
       <c r="Q28" s="0">
         <v>0</v>
@@ -5768,16 +5768,16 @@
         <v>0.92991385869319265</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.80507974974055618</v>
+        <v>0.93674745988878372</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.6482680620513821</v>
+        <v>0.90703407469897335</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.60896381412959144</v>
+        <v>0.69576619818841468</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="0">
-        <v>0.68947862867200349</v>
+        <v>0.94369699618682068</v>
       </c>
       <c r="V29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.69689161225754637</v>
+        <v>0.95256167502627087</v>
       </c>
       <c r="AB29" s="0">
         <v>0.90703407469897335</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>0.509014502403212</v>
+        <v>0.93432948546473482</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6186,13 +6186,13 @@
         <v>0.69576619818841468</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.63549061060861334</v>
+        <v>0.76939197714725149</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.53217983300218075</v>
+        <v>0.67044518150701093</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="0">
-        <v>0.59985992793725429</v>
+        <v>0.61670094988014856</v>
       </c>
       <c r="BF30" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.86654494722333064</v>
+        <v>0.95713191333526915</v>
       </c>
       <c r="AD31" s="0">
         <v>0.67044518150701093</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.74692719201649582</v>
+        <v>0.85482512322563931</v>
       </c>
       <c r="AG31" s="0">
         <v>0.70685902177486648</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="0">
-        <v>0.75440906763734583</v>
+        <v>0.77488756483333332</v>
       </c>
       <c r="Q32" s="0">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>0.83874507026993572</v>
+        <v>0.95068096915793676</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.69126962490018307</v>
+        <v>0.70685902177486648</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" s="0">
-        <v>0.77473488401242241</v>
+        <v>0.86224685803940493</v>
       </c>
       <c r="BA33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.52465490165838613</v>
+        <v>0.91203188499513943</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0">
-        <v>0.71108340277884385</v>
+        <v>0.91300789262160476</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.67213072642618887</v>
+        <v>0.91642549849297539</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.55890088622400014</v>
+        <v>0.75143796014081243</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.54246313979820848</v>
+        <v>0.90333546301390344</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0.6097169399386333</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.54867750370356383</v>
+        <v>0.9753084733973767</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="0">
-        <v>0.64899687111577342</v>
+        <v>0.71244868183133958</v>
       </c>
       <c r="S37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.66216935702747104</v>
+        <v>0.7748006117113323</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.56009733528678085</v>
+        <v>0.6097169399386333</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.54880768472162167</v>
+        <v>0.97275964554369077</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.55555055481599447</v>
+        <v>0.63754044588504966</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7864,10 +7864,10 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.52178322463208215</v>
+        <v>0.87415062980386971</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.50857778644740614</v>
+        <v>0.77190971135714292</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="0">
-        <v>0.71926417355029026</v>
+        <v>0.90991130060901959</v>
       </c>
       <c r="X39" s="0">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.65007060868036737</v>
+        <v>0.70871332140413612</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.57851367478578286</v>
+        <v>0.98558760570001724</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.6141040287343511</v>
+        <v>0.9216616590148432</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.86793512590496191</v>
+        <v>0.89785902334879764</v>
       </c>
       <c r="AQ41" s="0">
         <v>0.91590304821958379</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.51820662608506773</v>
+        <v>0.77257587968435448</v>
       </c>
       <c r="AR42" s="0">
         <v>0.74221987481762253</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="0">
-        <v>0.62172749745631573</v>
+        <v>0.78344776494675905</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.54793548533141845</v>
+        <v>0.91590304821958379</v>
       </c>
       <c r="AP43" s="0">
         <v>0.77257587968435448</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.72230271348380892</v>
+        <v>0.74221987481762253</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.85712135125579469</v>
+        <v>0.90329733184608574</v>
       </c>
       <c r="AT44" s="0">
         <v>0.74134856898807966</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0.58362064803565339</v>
+        <v>0.62106453353264957</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.67849733342139151</v>
+        <v>0.86643733781959398</v>
       </c>
       <c r="AR45" s="0">
         <v>0.90329733184608574</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.53902702179255146</v>
+        <v>0.74134856898807966</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.77693370401341011</v>
+        <v>0.78105582294499099</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.68778089983914703</v>
+        <v>0.92003526087168197</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.74565864771441048</v>
+        <v>0.92981099932253453</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.62161845994446607</v>
+        <v>0.82166080574305389</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="0">
-        <v>0.55521520963322279</v>
+        <v>0.9286553043304776</v>
       </c>
       <c r="AT48" s="0">
         <v>0.92003526087168197</v>
@@ -9957,7 +9957,7 @@
         <v>0.82383075279084128</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.57219884946452815</v>
+        <v>0.86413816157231038</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10157,16 +10157,16 @@
         <v>0.82166080574305389</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.50769628057672456</v>
+        <v>0.82383075279084128</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.60927955621111796</v>
+        <v>0.96761695718002483</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.79606117960830813</v>
+        <v>0.82537714125900585</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="0">
-        <v>0.58790456888171727</v>
+        <v>0.75910459453657242</v>
       </c>
       <c r="K50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0.86551730435498619</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.50724333686702061</v>
+        <v>0.64510317525378402</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10575,13 +10575,13 @@
         <v>0.82537714125900585</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.76359130008050746</v>
+        <v>0.86551730435498619</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.64991576273504514</v>
+        <v>0.68708093442682139</v>
       </c>
       <c r="BA51" s="0">
         <v>0.78290166303728559</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.75074867810191936</v>
+        <v>0.81186472187875958</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>0.76372945560331629</v>
+        <v>0.77930113138325385</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.5671977965768602</v>
+        <v>0.78290166303728559</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>0.61274631661242607</v>
+        <v>0.82257124161649631</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0.81186472187875958</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.56317545175456218</v>
+        <v>0.65648749932275263</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.72749215356850327</v>
+        <v>0.98663203154499945</v>
       </c>
       <c r="BE55" s="0">
         <v>0.88960759643519793</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.66291245876567206</v>
+        <v>0.84298581764974734</v>
       </c>
       <c r="BC56" s="0">
         <v>0.98663203154499945</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.59100793231560611</v>
+        <v>0.9885081585435983</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.52862232911439722</v>
+        <v>0.68860015677568054</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.88448616217840592</v>
+        <v>0.88960759643519793</v>
       </c>
       <c r="BD57" s="0">
         <v>0.9885081585435983</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.50634575320647279</v>
+        <v>0.6337693718138635</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11942,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="0">
-        <v>0.57281363825058484</v>
+        <v>0.61983811100125341</v>
       </c>
       <c r="Z58" s="0">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.515353754825851</v>
+        <v>0.74260005885462776</v>
       </c>
       <c r="BH58" s="0">
         <v>0.94982049974785032</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.76766435247389797</v>
+        <v>0.94982049974785032</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.51113252996967518</v>
+        <v>0.97822365476206063</v>
       </c>
       <c r="BJ60" s="0">
         <v>0.97098480633141437</v>
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="AU61" s="0">
-        <v>0.55093584083436142</v>
+        <v>0.70029037392352911</v>
       </c>
       <c r="AV61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.86203879988131993</v>
+        <v>0.90431575044449941</v>
       </c>
       <c r="BH61" s="0">
         <v>0.97822365476206063</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.87946440644452739</v>
+        <v>0.97098480633141437</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12880,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.63102900004052764</v>
+        <v>0.80512521931213832</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.63137094476218447</v>
+        <v>0.68407717792227374</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.57851864669424224</v>
+        <v>0.66891984245340685</v>
       </c>
       <c r="BJ63" s="0">
         <v>0.80512521931213832</v>
@@ -13092,7 +13092,7 @@
         <v>0.6786128267796161</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.73602056630970214</v>
+        <v>0.92273136997414551</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>0.58968816461032936</v>
+        <v>0.64203394489087695</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>0.88297900603472601</v>
+        <v>0.92430781460713263</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13292,13 +13292,13 @@
         <v>0.68407717792227374</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.57219039825499429</v>
+        <v>0.6786128267796161</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.58497730810467807</v>
+        <v>0.76701510898552416</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0.83040729147987913</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.56135191628402104</v>
+        <v>0.94643037551235865</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="AH66" s="0">
-        <v>0.65110268153185913</v>
+        <v>0.87106246550090105</v>
       </c>
       <c r="AI66" s="0">
         <v>0</v>
@@ -13710,16 +13710,16 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.79107055292558104</v>
+        <v>0.83040729147987913</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.62001234217124068</v>
+        <v>0.82709113943720747</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.91783653290591305</v>
+        <v>0.939854575000306</v>
       </c>
     </row>
     <row r="67">
@@ -14128,7 +14128,7 @@
         <v>0.939854575000306</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.65031009374031568</v>
+        <v>0.96803542607475679</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
